--- a/Complete-spreadsheets/EC/Fp1-list-EC.xlsx
+++ b/Complete-spreadsheets/EC/Fp1-list-EC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB2EE00-15BB-4540-901F-262BB71B446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660FE2F-042A-4CB3-A29B-81730E0C950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L47"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,23 +496,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>32.194777234472987</v>
-      </c>
-      <c r="C2" s="3">
-        <v>13.23581576194589</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10.912340973082729</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.2133631755803478</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.0407696734355949</v>
+      <c r="B2" s="4">
+        <v>19.023542523371169</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2205333714439952</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.2296390363019158</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.9450579995370458</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.5400468921915791</v>
       </c>
       <c r="G2">
-        <v>61.597066818517547</v>
+        <v>31.958819822845701</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -534,23 +534,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>8.6047739020010283</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5.5123269271276927</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.9311246555752524</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.6735859325931708</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.0528400422107449</v>
+      <c r="B3" s="4">
+        <v>63.826654814487839</v>
+      </c>
+      <c r="C3" s="4">
+        <v>16.581230495962771</v>
+      </c>
+      <c r="D3" s="4">
+        <v>39.157731977945282</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.0971495714706876</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.0702725925128949</v>
       </c>
       <c r="G3">
-        <v>23.77465145950789</v>
+        <v>126.7330394523795</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -559,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -572,23 +572,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>16.744244281963759</v>
-      </c>
-      <c r="C4" s="3">
-        <v>9.9445798576465094</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8.7372410885105367</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.499405459487023</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.0872707338495751</v>
+      <c r="B4" s="4">
+        <v>23.194658003641251</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12.373684849960259</v>
+      </c>
+      <c r="D4" s="4">
+        <v>51.193115506632957</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.954576152141609</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.0881357688222542</v>
       </c>
       <c r="G4">
-        <v>40.012741421457399</v>
+        <v>95.804170281198324</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -611,22 +611,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>19.023542523371169</v>
+        <v>19.74689347713964</v>
       </c>
       <c r="C5" s="4">
-        <v>4.2205333714439952</v>
+        <v>55.471943463968422</v>
       </c>
       <c r="D5" s="4">
-        <v>3.2296390363019158</v>
+        <v>6.9908181878684204</v>
       </c>
       <c r="E5" s="4">
-        <v>2.9450579995370458</v>
+        <v>3.2200997366292139</v>
       </c>
       <c r="F5" s="4">
-        <v>2.5400468921915791</v>
+        <v>3.1377568565688891</v>
       </c>
       <c r="G5">
-        <v>31.958819822845701</v>
+        <v>88.567511722174572</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -648,23 +648,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>68.022507797711171</v>
-      </c>
-      <c r="C6" s="3">
-        <v>13.786744507177019</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.6090731047287301</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.2481342245688101</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.619633665444725</v>
+      <c r="B6" s="4">
+        <v>9.7647150860603578</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.8314295949974602</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.7234853997570427</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.7470097138513512</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.289163418341789</v>
       </c>
       <c r="G6">
-        <v>92.286093299630465</v>
+        <v>27.355803213007999</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>17</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -686,23 +686,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>34.730899186053954</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11.44451418805644</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6.7409881444358746</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.0384615234408328</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2.8535694028243999</v>
+      <c r="B7" s="4">
+        <v>11.6124755411164</v>
+      </c>
+      <c r="C7" s="4">
+        <v>57.541641866882713</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21.56514960162243</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.9751220093888797</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.4868319025340222</v>
       </c>
       <c r="G7">
-        <v>59.808432444811501</v>
+        <v>100.18122092154439</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -713,8 +713,8 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>12</v>
@@ -725,22 +725,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>63.826654814487839</v>
+        <v>21.204022083403441</v>
       </c>
       <c r="C8" s="4">
-        <v>16.581230495962771</v>
+        <v>62.753814354173763</v>
       </c>
       <c r="D8" s="4">
-        <v>39.157731977945282</v>
+        <v>3.5781453423056222</v>
       </c>
       <c r="E8" s="4">
-        <v>4.0971495714706876</v>
+        <v>4.2754824039758024</v>
       </c>
       <c r="F8" s="4">
-        <v>3.0702725925128949</v>
+        <v>3.490393245803372</v>
       </c>
       <c r="G8">
-        <v>126.7330394523795</v>
+        <v>95.301857429662007</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>23.194658003641251</v>
+        <v>23.942303927050141</v>
       </c>
       <c r="C9" s="4">
-        <v>12.373684849960259</v>
+        <v>6.1656064087007643</v>
       </c>
       <c r="D9" s="4">
-        <v>51.193115506632957</v>
+        <v>4.7252244189744887</v>
       </c>
       <c r="E9" s="4">
-        <v>5.954576152141609</v>
+        <v>3.0832041336755869</v>
       </c>
       <c r="F9" s="4">
-        <v>3.0881357688222542</v>
+        <v>3.5329235761986402</v>
       </c>
       <c r="G9">
-        <v>95.804170281198324</v>
+        <v>41.449262464599613</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -800,23 +800,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>17.608573973722731</v>
-      </c>
-      <c r="C10" s="3">
-        <v>54.591086660995273</v>
-      </c>
-      <c r="D10" s="3">
-        <v>15.640476718508831</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.937232139217818</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.0900238574613028</v>
+      <c r="B10" s="4">
+        <v>125.2213443139005</v>
+      </c>
+      <c r="C10" s="4">
+        <v>27.424982924085452</v>
+      </c>
+      <c r="D10" s="4">
+        <v>13.38462298126457</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.6365908255762687</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.6169223500809742</v>
       </c>
       <c r="G10">
-        <v>94.867393349905939</v>
+        <v>174.28446339490779</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>12</v>
@@ -839,22 +839,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>19.74689347713964</v>
+        <v>1067.4681848483131</v>
       </c>
       <c r="C11" s="4">
-        <v>55.471943463968422</v>
+        <v>86.470425712143708</v>
       </c>
       <c r="D11" s="4">
-        <v>6.9908181878684204</v>
+        <v>4.9636343488602339</v>
       </c>
       <c r="E11" s="4">
-        <v>3.2200997366292139</v>
+        <v>6.1799334921040669</v>
       </c>
       <c r="F11" s="4">
-        <v>3.1377568565688891</v>
+        <v>3.6722632237199528</v>
       </c>
       <c r="G11">
-        <v>88.567511722174572</v>
+        <v>1168.754441625141</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -876,23 +876,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>17.252463310375209</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4.1744554576182464</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9.2999514571303283</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.707080051168266</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.260148134676538</v>
+      <c r="B12" s="4">
+        <v>19.404406454561979</v>
+      </c>
+      <c r="C12" s="4">
+        <v>35.93858996009947</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2.1709078707708098</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.398967914731768</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.772206532321404</v>
       </c>
       <c r="G12">
-        <v>37.694098410968593</v>
+        <v>64.685078732485437</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -915,22 +915,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>9.7647150860603578</v>
+        <v>204.18913321752089</v>
       </c>
       <c r="C13" s="4">
-        <v>5.8314295949974602</v>
+        <v>11.220038940725249</v>
       </c>
       <c r="D13" s="4">
-        <v>5.7234853997570427</v>
+        <v>24.27304584925206</v>
       </c>
       <c r="E13" s="4">
-        <v>2.7470097138513512</v>
+        <v>4.8852213665767632</v>
       </c>
       <c r="F13" s="4">
-        <v>3.289163418341789</v>
+        <v>3.777352464024418</v>
       </c>
       <c r="G13">
-        <v>27.355803213007999</v>
+        <v>248.34479183809941</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -952,23 +952,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>22.719290887494321</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7.6492749871135297</v>
-      </c>
-      <c r="D14" s="3">
-        <v>13.58953635760721</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.6416363138265746</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.485627542711796</v>
+      <c r="B14" s="4">
+        <v>13.42082617778194</v>
+      </c>
+      <c r="C14" s="4">
+        <v>47.482892732435268</v>
+      </c>
+      <c r="D14" s="4">
+        <v>16.81609686153913</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.9640887541074621</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.242175089496671</v>
       </c>
       <c r="G14">
-        <v>53.085366088753439</v>
+        <v>87.926079615360493</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -991,22 +991,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>11.6124755411164</v>
+        <v>185.35018448743079</v>
       </c>
       <c r="C15" s="4">
-        <v>57.541641866882713</v>
+        <v>11.869877577587401</v>
       </c>
       <c r="D15" s="4">
-        <v>21.56514960162243</v>
+        <v>10.59153792205071</v>
       </c>
       <c r="E15" s="4">
-        <v>5.9751220093888797</v>
+        <v>3.5850593763082408</v>
       </c>
       <c r="F15" s="4">
-        <v>3.4868319025340222</v>
+        <v>4.3331282460266802</v>
       </c>
       <c r="G15">
-        <v>100.18122092154439</v>
+        <v>215.7297876094039</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1029,22 +1029,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>21.204022083403441</v>
+        <v>30.747776130311639</v>
       </c>
       <c r="C16" s="4">
-        <v>62.753814354173763</v>
+        <v>6.262772590814933</v>
       </c>
       <c r="D16" s="4">
-        <v>3.5781453423056222</v>
+        <v>6.8269763952572946</v>
       </c>
       <c r="E16" s="4">
-        <v>4.2754824039758024</v>
+        <v>2.971737058300747</v>
       </c>
       <c r="F16" s="4">
-        <v>3.490393245803372</v>
+        <v>4.3384367458550859</v>
       </c>
       <c r="G16">
-        <v>95.301857429662007</v>
+        <v>51.147698920539703</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1067,22 +1067,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>23.942303927050141</v>
+        <v>46.360670585798402</v>
       </c>
       <c r="C17" s="4">
-        <v>6.1656064087007643</v>
+        <v>25.644245478327921</v>
       </c>
       <c r="D17" s="4">
-        <v>4.7252244189744887</v>
+        <v>31.379229953515651</v>
       </c>
       <c r="E17" s="4">
-        <v>3.0832041336755869</v>
+        <v>6.6168122233256224</v>
       </c>
       <c r="F17" s="4">
-        <v>3.5329235761986402</v>
+        <v>7.1790718610399624</v>
       </c>
       <c r="G17">
-        <v>41.449262464599613</v>
+        <v>117.18003010200761</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>125.2213443139005</v>
+        <v>227.02069950503889</v>
       </c>
       <c r="C18" s="4">
-        <v>27.424982924085452</v>
+        <v>14.40666841728455</v>
       </c>
       <c r="D18" s="4">
-        <v>13.38462298126457</v>
+        <v>11.215491469714321</v>
       </c>
       <c r="E18" s="4">
-        <v>4.6365908255762687</v>
+        <v>8.3350221728667808</v>
       </c>
       <c r="F18" s="4">
-        <v>3.6169223500809742</v>
+        <v>8.540940597228257</v>
       </c>
       <c r="G18">
-        <v>174.28446339490779</v>
+        <v>269.51882216213278</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1142,23 +1142,23 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
-        <v>24.62737455256638</v>
-      </c>
-      <c r="C19" s="3">
-        <v>12.730976347102899</v>
-      </c>
-      <c r="D19" s="3">
-        <v>36.454081460368798</v>
-      </c>
-      <c r="E19" s="3">
-        <v>9.2943484152304006</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3.654034679693658</v>
+      <c r="B19" s="4">
+        <v>83.113451022449382</v>
+      </c>
+      <c r="C19" s="4">
+        <v>17.506513143281492</v>
+      </c>
+      <c r="D19" s="4">
+        <v>51.615369584131138</v>
+      </c>
+      <c r="E19" s="4">
+        <v>11.576749282312351</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10.50987933722455</v>
       </c>
       <c r="G19">
-        <v>86.760815454962142</v>
+        <v>174.32196236939899</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>15</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1181,22 +1181,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>1067.4681848483131</v>
+        <v>19.712538584936201</v>
       </c>
       <c r="C20" s="4">
-        <v>86.470425712143708</v>
+        <v>134.99179758516499</v>
       </c>
       <c r="D20" s="4">
-        <v>4.9636343488602339</v>
+        <v>19.124137864443949</v>
       </c>
       <c r="E20" s="4">
-        <v>6.1799334921040669</v>
+        <v>9.2782947265101861</v>
       </c>
       <c r="F20" s="4">
-        <v>3.6722632237199528</v>
+        <v>13.81632798144328</v>
       </c>
       <c r="G20">
-        <v>1168.754441625141</v>
+        <v>196.92309674249859</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1219,22 +1219,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>19.404406454561979</v>
+        <v>18.68256825157054</v>
       </c>
       <c r="C21" s="4">
-        <v>35.93858996009947</v>
+        <v>93.610655809558537</v>
       </c>
       <c r="D21" s="4">
-        <v>2.1709078707708098</v>
+        <v>19.476050025378949</v>
       </c>
       <c r="E21" s="4">
-        <v>3.398967914731768</v>
+        <v>10.35108984269983</v>
       </c>
       <c r="F21" s="4">
-        <v>3.772206532321404</v>
+        <v>18.633628638306469</v>
       </c>
       <c r="G21">
-        <v>64.685078732485437</v>
+        <v>160.7539925675143</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>204.18913321752089</v>
+        <v>1157.1941449262811</v>
       </c>
       <c r="C22" s="4">
-        <v>11.220038940725249</v>
+        <v>242.05497324197819</v>
       </c>
       <c r="D22" s="4">
-        <v>24.27304584925206</v>
+        <v>52.183852165644417</v>
       </c>
       <c r="E22" s="4">
-        <v>4.8852213665767632</v>
+        <v>34.238221630313078</v>
       </c>
       <c r="F22" s="4">
-        <v>3.777352464024418</v>
+        <v>25.802918123428231</v>
       </c>
       <c r="G22">
-        <v>248.34479183809941</v>
+        <v>1511.4741100876449</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1294,23 +1294,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>10.479694159931</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4.7063180583375956</v>
-      </c>
-      <c r="D23" s="3">
-        <v>12.994454097945599</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8.5387894976625738</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3.9358734213870772</v>
+      <c r="B23" s="4">
+        <v>11305.02986449886</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1118.3253489761651</v>
+      </c>
+      <c r="D23" s="4">
+        <v>739.28038815800778</v>
+      </c>
+      <c r="E23" s="4">
+        <v>596.65811292167587</v>
+      </c>
+      <c r="F23" s="4">
+        <v>440.16371994018562</v>
       </c>
       <c r="G23">
-        <v>40.655129235263843</v>
+        <v>14199.457434494891</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1319,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -1333,22 +1333,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>21.053090674317691</v>
+        <v>32.194777234472987</v>
       </c>
       <c r="C24" s="3">
-        <v>17.12599619513697</v>
+        <v>13.23581576194589</v>
       </c>
       <c r="D24" s="3">
-        <v>73.50016877536838</v>
+        <v>10.912340973082729</v>
       </c>
       <c r="E24" s="3">
-        <v>8.6025482893457301</v>
+        <v>3.2133631755803478</v>
       </c>
       <c r="F24" s="3">
-        <v>4.013168716050755</v>
+        <v>2.0407696734355949</v>
       </c>
       <c r="G24">
-        <v>124.29497265021961</v>
+        <v>61.597066818517547</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1370,23 +1370,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>13.42082617778194</v>
-      </c>
-      <c r="C25" s="4">
-        <v>47.482892732435268</v>
-      </c>
-      <c r="D25" s="4">
-        <v>16.81609686153913</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5.9640887541074621</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.242175089496671</v>
+      <c r="B25" s="3">
+        <v>8.6047739020010283</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5.5123269271276927</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4.9311246555752524</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.6735859325931708</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.0528400422107449</v>
       </c>
       <c r="G25">
-        <v>87.926079615360493</v>
+        <v>23.77465145950789</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
@@ -1408,23 +1408,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>185.35018448743079</v>
-      </c>
-      <c r="C26" s="4">
-        <v>11.869877577587401</v>
-      </c>
-      <c r="D26" s="4">
-        <v>10.59153792205071</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3.5850593763082408</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4.3331282460266802</v>
+      <c r="B26" s="3">
+        <v>16.744244281963759</v>
+      </c>
+      <c r="C26" s="3">
+        <v>9.9445798576465094</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8.7372410885105367</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.499405459487023</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.0872707338495751</v>
       </c>
       <c r="G26">
-        <v>215.7297876094039</v>
+        <v>40.012741421457399</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>22</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1446,23 +1446,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>30.747776130311639</v>
-      </c>
-      <c r="C27" s="4">
-        <v>6.262772590814933</v>
-      </c>
-      <c r="D27" s="4">
-        <v>6.8269763952572946</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2.971737058300747</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4.3384367458550859</v>
+      <c r="B27" s="3">
+        <v>68.022507797711171</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13.786744507177019</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2.6090731047287301</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.2481342245688101</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.619633665444725</v>
       </c>
       <c r="G27">
-        <v>51.147698920539703</v>
+        <v>92.286093299630465</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>12</v>
@@ -1485,22 +1485,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>13.51274952394472</v>
+        <v>34.730899186053954</v>
       </c>
       <c r="C28" s="3">
-        <v>5.4207381958556171</v>
+        <v>11.44451418805644</v>
       </c>
       <c r="D28" s="3">
-        <v>5.300870222098423</v>
+        <v>6.7409881444358746</v>
       </c>
       <c r="E28" s="3">
-        <v>5.3197686222261833</v>
+        <v>4.0384615234408328</v>
       </c>
       <c r="F28" s="3">
-        <v>4.7384393644041118</v>
+        <v>2.8535694028243999</v>
       </c>
       <c r="G28">
-        <v>34.292565928529058</v>
+        <v>59.808432444811501</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1523,22 +1523,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>17.366637736665329</v>
+        <v>17.608573973722731</v>
       </c>
       <c r="C29" s="3">
-        <v>22.869272908297461</v>
+        <v>54.591086660995273</v>
       </c>
       <c r="D29" s="3">
-        <v>78.154466834193613</v>
+        <v>15.640476718508831</v>
       </c>
       <c r="E29" s="3">
-        <v>8.9828949128626494</v>
+        <v>3.937232139217818</v>
       </c>
       <c r="F29" s="3">
-        <v>5.2457373921192278</v>
+        <v>3.0900238574613028</v>
       </c>
       <c r="G29">
-        <v>132.61900978413831</v>
+        <v>94.867393349905939</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1561,22 +1561,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>24.624215889551991</v>
+        <v>17.252463310375209</v>
       </c>
       <c r="C30" s="3">
-        <v>9.3779118342614716</v>
+        <v>4.1744554576182464</v>
       </c>
       <c r="D30" s="3">
-        <v>10.36399745326038</v>
+        <v>9.2999514571303283</v>
       </c>
       <c r="E30" s="3">
-        <v>10.593269859414701</v>
+        <v>3.707080051168266</v>
       </c>
       <c r="F30" s="3">
-        <v>5.7978262934889866</v>
+        <v>3.260148134676538</v>
       </c>
       <c r="G30">
-        <v>60.75722132997754</v>
+        <v>37.694098410968593</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1599,22 +1599,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>227.48541361560581</v>
+        <v>22.719290887494321</v>
       </c>
       <c r="C31" s="3">
-        <v>56.10859153144893</v>
+        <v>7.6492749871135297</v>
       </c>
       <c r="D31" s="3">
-        <v>20.68580871360523</v>
+        <v>13.58953635760721</v>
       </c>
       <c r="E31" s="3">
-        <v>13.02669248731716</v>
+        <v>5.6416363138265746</v>
       </c>
       <c r="F31" s="3">
-        <v>6.2662291385588667</v>
+        <v>3.485627542711796</v>
       </c>
       <c r="G31">
-        <v>323.57273548653598</v>
+        <v>53.085366088753439</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1637,22 +1637,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>168.0714195701774</v>
+        <v>24.62737455256638</v>
       </c>
       <c r="C32" s="3">
-        <v>40.381046712236333</v>
+        <v>12.730976347102899</v>
       </c>
       <c r="D32" s="3">
-        <v>13.15159381638688</v>
+        <v>36.454081460368798</v>
       </c>
       <c r="E32" s="3">
-        <v>8.6365769958211285</v>
+        <v>9.2943484152304006</v>
       </c>
       <c r="F32" s="3">
-        <v>6.443499834698093</v>
+        <v>3.654034679693658</v>
       </c>
       <c r="G32">
-        <v>236.68413692931989</v>
+        <v>86.760815454962142</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1675,22 +1675,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>56.434086872460611</v>
+        <v>10.479694159931</v>
       </c>
       <c r="C33" s="3">
-        <v>6.4618755879678282</v>
+        <v>4.7063180583375956</v>
       </c>
       <c r="D33" s="3">
-        <v>4.9231239518564616</v>
+        <v>12.994454097945599</v>
       </c>
       <c r="E33" s="3">
-        <v>6.266903489725995</v>
+        <v>8.5387894976625738</v>
       </c>
       <c r="F33" s="3">
-        <v>6.9420438704806138</v>
+        <v>3.9358734213870772</v>
       </c>
       <c r="G33">
-        <v>81.028033772491483</v>
+        <v>40.655129235263843</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1712,23 +1712,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>46.360670585798402</v>
-      </c>
-      <c r="C34" s="4">
-        <v>25.644245478327921</v>
-      </c>
-      <c r="D34" s="4">
-        <v>31.379229953515651</v>
-      </c>
-      <c r="E34" s="4">
-        <v>6.6168122233256224</v>
-      </c>
-      <c r="F34" s="4">
-        <v>7.1790718610399624</v>
+      <c r="B34" s="3">
+        <v>21.053090674317691</v>
+      </c>
+      <c r="C34" s="3">
+        <v>17.12599619513697</v>
+      </c>
+      <c r="D34" s="3">
+        <v>73.50016877536838</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.6025482893457301</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.013168716050755</v>
       </c>
       <c r="G34">
-        <v>117.18003010200761</v>
+        <v>124.29497265021961</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>20</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -1751,22 +1751,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>22.609443138149189</v>
+        <v>13.51274952394472</v>
       </c>
       <c r="C35" s="3">
-        <v>8.2463787296413962</v>
+        <v>5.4207381958556171</v>
       </c>
       <c r="D35" s="3">
-        <v>15.535000592788981</v>
+        <v>5.300870222098423</v>
       </c>
       <c r="E35" s="3">
-        <v>6.0624875706687611</v>
+        <v>5.3197686222261833</v>
       </c>
       <c r="F35" s="3">
-        <v>7.2119821169853822</v>
+        <v>4.7384393644041118</v>
       </c>
       <c r="G35">
-        <v>59.665292148233711</v>
+        <v>34.292565928529058</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1789,22 +1789,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>214.39964573353379</v>
+        <v>17.366637736665329</v>
       </c>
       <c r="C36" s="3">
-        <v>9.9910784607887617</v>
+        <v>22.869272908297461</v>
       </c>
       <c r="D36" s="3">
-        <v>38.404215137153528</v>
+        <v>78.154466834193613</v>
       </c>
       <c r="E36" s="3">
-        <v>11.22288478018312</v>
+        <v>8.9828949128626494</v>
       </c>
       <c r="F36" s="3">
-        <v>7.2482644243386698</v>
+        <v>5.2457373921192278</v>
       </c>
       <c r="G36">
-        <v>281.26608853599782</v>
+        <v>132.61900978413831</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1826,23 +1826,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>227.02069950503889</v>
-      </c>
-      <c r="C37" s="4">
-        <v>14.40666841728455</v>
-      </c>
-      <c r="D37" s="4">
-        <v>11.215491469714321</v>
-      </c>
-      <c r="E37" s="4">
-        <v>8.3350221728667808</v>
-      </c>
-      <c r="F37" s="4">
-        <v>8.540940597228257</v>
+      <c r="B37" s="3">
+        <v>24.624215889551991</v>
+      </c>
+      <c r="C37" s="3">
+        <v>9.3779118342614716</v>
+      </c>
+      <c r="D37" s="3">
+        <v>10.36399745326038</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10.593269859414701</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.7978262934889866</v>
       </c>
       <c r="G37">
-        <v>269.51882216213278</v>
+        <v>60.75722132997754</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1853,8 +1853,8 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" s="4">
-        <v>0</v>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>12</v>
@@ -1865,22 +1865,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>15.076388297347259</v>
+        <v>227.48541361560581</v>
       </c>
       <c r="C38" s="3">
-        <v>6.4497384514335341</v>
+        <v>56.10859153144893</v>
       </c>
       <c r="D38" s="3">
-        <v>6.4209491642099401</v>
+        <v>20.68580871360523</v>
       </c>
       <c r="E38" s="3">
-        <v>12.32951193370887</v>
+        <v>13.02669248731716</v>
       </c>
       <c r="F38" s="3">
-        <v>9.4586236779664006</v>
+        <v>6.2662291385588667</v>
       </c>
       <c r="G38">
-        <v>49.735211524666013</v>
+        <v>323.57273548653598</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1902,23 +1902,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>83.113451022449382</v>
-      </c>
-      <c r="C39" s="4">
-        <v>17.506513143281492</v>
-      </c>
-      <c r="D39" s="4">
-        <v>51.615369584131138</v>
-      </c>
-      <c r="E39" s="4">
-        <v>11.576749282312351</v>
-      </c>
-      <c r="F39" s="4">
-        <v>10.50987933722455</v>
+      <c r="B39" s="3">
+        <v>168.0714195701774</v>
+      </c>
+      <c r="C39" s="3">
+        <v>40.381046712236333</v>
+      </c>
+      <c r="D39" s="3">
+        <v>13.15159381638688</v>
+      </c>
+      <c r="E39" s="3">
+        <v>8.6365769958211285</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6.443499834698093</v>
       </c>
       <c r="G39">
-        <v>174.32196236939899</v>
+        <v>236.68413692931989</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1941,22 +1941,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>85.887316356946101</v>
+        <v>56.434086872460611</v>
       </c>
       <c r="C40" s="3">
-        <v>147.35411736457041</v>
+        <v>6.4618755879678282</v>
       </c>
       <c r="D40" s="3">
-        <v>30.347374749816279</v>
+        <v>4.9231239518564616</v>
       </c>
       <c r="E40" s="3">
-        <v>18.473247908183112</v>
+        <v>6.266903489725995</v>
       </c>
       <c r="F40" s="3">
-        <v>11.247784571203001</v>
+        <v>6.9420438704806138</v>
       </c>
       <c r="G40">
-        <v>293.30984095071892</v>
+        <v>81.028033772491483</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1979,22 +1979,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>1612.912261157102</v>
+        <v>22.609443138149189</v>
       </c>
       <c r="C41" s="3">
-        <v>276.77622135061489</v>
+        <v>8.2463787296413962</v>
       </c>
       <c r="D41" s="3">
-        <v>38.480361218740953</v>
+        <v>15.535000592788981</v>
       </c>
       <c r="E41" s="3">
-        <v>20.65108262682115</v>
+        <v>6.0624875706687611</v>
       </c>
       <c r="F41" s="3">
-        <v>11.31451051742498</v>
+        <v>7.2119821169853822</v>
       </c>
       <c r="G41">
-        <v>1960.1344368707039</v>
+        <v>59.665292148233711</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2017,22 +2017,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>412.81570859962989</v>
+        <v>214.39964573353379</v>
       </c>
       <c r="C42" s="3">
-        <v>86.371888999385192</v>
+        <v>9.9910784607887617</v>
       </c>
       <c r="D42" s="3">
-        <v>34.851202681725447</v>
+        <v>38.404215137153528</v>
       </c>
       <c r="E42" s="3">
-        <v>16.054005276993749</v>
+        <v>11.22288478018312</v>
       </c>
       <c r="F42" s="3">
-        <v>13.58234734369543</v>
+        <v>7.2482644243386698</v>
       </c>
       <c r="G42">
-        <v>563.67515290142978</v>
+        <v>281.26608853599782</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2054,23 +2054,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>19.712538584936201</v>
-      </c>
-      <c r="C43" s="4">
-        <v>134.99179758516499</v>
-      </c>
-      <c r="D43" s="4">
-        <v>19.124137864443949</v>
-      </c>
-      <c r="E43" s="4">
-        <v>9.2782947265101861</v>
-      </c>
-      <c r="F43" s="4">
-        <v>13.81632798144328</v>
+      <c r="B43" s="3">
+        <v>15.076388297347259</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6.4497384514335341</v>
+      </c>
+      <c r="D43" s="3">
+        <v>6.4209491642099401</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12.32951193370887</v>
+      </c>
+      <c r="F43" s="3">
+        <v>9.4586236779664006</v>
       </c>
       <c r="G43">
-        <v>196.92309674249859</v>
+        <v>49.735211524666013</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2079,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>19</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>12</v>
@@ -2092,23 +2092,23 @@
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="4">
-        <v>18.68256825157054</v>
-      </c>
-      <c r="C44" s="4">
-        <v>93.610655809558537</v>
-      </c>
-      <c r="D44" s="4">
-        <v>19.476050025378949</v>
-      </c>
-      <c r="E44" s="4">
-        <v>10.35108984269983</v>
-      </c>
-      <c r="F44" s="4">
-        <v>18.633628638306469</v>
+      <c r="B44" s="3">
+        <v>85.887316356946101</v>
+      </c>
+      <c r="C44" s="3">
+        <v>147.35411736457041</v>
+      </c>
+      <c r="D44" s="3">
+        <v>30.347374749816279</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18.473247908183112</v>
+      </c>
+      <c r="F44" s="3">
+        <v>11.247784571203001</v>
       </c>
       <c r="G44">
-        <v>160.7539925675143</v>
+        <v>293.30984095071892</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>6</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>12</v>
@@ -2130,23 +2130,23 @@
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
-        <v>1157.1941449262811</v>
-      </c>
-      <c r="C45" s="4">
-        <v>242.05497324197819</v>
-      </c>
-      <c r="D45" s="4">
-        <v>52.183852165644417</v>
-      </c>
-      <c r="E45" s="4">
-        <v>34.238221630313078</v>
-      </c>
-      <c r="F45" s="4">
-        <v>25.802918123428231</v>
+      <c r="B45" s="3">
+        <v>1612.912261157102</v>
+      </c>
+      <c r="C45" s="3">
+        <v>276.77622135061489</v>
+      </c>
+      <c r="D45" s="3">
+        <v>38.480361218740953</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20.65108262682115</v>
+      </c>
+      <c r="F45" s="3">
+        <v>11.31451051742498</v>
       </c>
       <c r="G45">
-        <v>1511.4741100876449</v>
+        <v>1960.1344368707039</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2155,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>9</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -2169,22 +2169,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>12.53809718588507</v>
+        <v>412.81570859962989</v>
       </c>
       <c r="C46" s="3">
-        <v>15.81910389664729</v>
+        <v>86.371888999385192</v>
       </c>
       <c r="D46" s="3">
-        <v>11.726134209964821</v>
+        <v>34.851202681725447</v>
       </c>
       <c r="E46" s="3">
-        <v>31.43535005828355</v>
+        <v>16.054005276993749</v>
       </c>
       <c r="F46" s="3">
-        <v>61.444327639039763</v>
+        <v>13.58234734369543</v>
       </c>
       <c r="G46">
-        <v>132.9630129898205</v>
+        <v>563.67515290142978</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2206,23 +2206,23 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4">
-        <v>11305.02986449886</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1118.3253489761651</v>
-      </c>
-      <c r="D47" s="4">
-        <v>739.28038815800778</v>
-      </c>
-      <c r="E47" s="4">
-        <v>596.65811292167587</v>
-      </c>
-      <c r="F47" s="4">
-        <v>440.16371994018562</v>
+      <c r="B47" s="3">
+        <v>12.53809718588507</v>
+      </c>
+      <c r="C47" s="3">
+        <v>15.81910389664729</v>
+      </c>
+      <c r="D47" s="3">
+        <v>11.726134209964821</v>
+      </c>
+      <c r="E47" s="3">
+        <v>31.43535005828355</v>
+      </c>
+      <c r="F47" s="3">
+        <v>61.444327639039763</v>
       </c>
       <c r="G47">
-        <v>14199.457434494891</v>
+        <v>132.9630129898205</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2231,18 +2231,18 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>21</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K51">
-    <sortCondition ref="F2:F51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="K2:K47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
